--- a/doc/02_DB定義書_ダチョウの群れ.xlsx
+++ b/doc/02_DB定義書_ダチョウの群れ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC48F8E-B39B-40AF-8961-552AEC4DFCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56296DEE-A835-4B5C-99FD-1D2A4A4168DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1027,13 +1027,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>相性診断回答</t>
-    <rPh sb="0" eb="6">
-      <t>アイショウシンダンカイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回答パターン数（16）</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -1189,10 +1182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>q&amp;as</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>使用しない</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
@@ -1221,18 +1210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Compatibility Tests Answer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Compatibility Tests Questions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Compatibility Tests Answers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>診断テスト回答</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
@@ -1342,6 +1319,38 @@
   </si>
   <si>
     <t>a5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断テスト質問テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断テスト回答テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mach_questions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mach_answers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qas</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1616,7 +1625,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1668,6 +1677,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1694,18 +1709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2164,8 +2167,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2251,7 +2254,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
@@ -2266,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
@@ -2281,7 +2284,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>25</v>
@@ -2296,7 +2299,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -2308,10 +2311,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -2323,10 +2326,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
@@ -2356,7 +2359,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -2401,7 +2404,7 @@
         <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>25</v>
@@ -2416,7 +2419,7 @@
         <v>116</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>25</v>
@@ -2756,7 +2759,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2872,7 +2875,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -3157,7 +3160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C0683A-63B5-4DB2-A133-D90FAB9C9BB5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3222,7 +3225,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3663,7 +3666,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3722,7 +3725,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3762,7 +3765,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table q&amp;as (</v>
+        <v>create table qas (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4235,7 +4238,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4420,7 +4423,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>84</v>
@@ -4721,7 +4724,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5267,7 +5270,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5315,7 +5318,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5809,7 +5812,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5821,7 +5824,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6027,7 +6030,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -6057,7 +6060,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -6087,7 +6090,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -6115,7 +6118,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -6401,7 +6404,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6476,7 +6479,7 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -6904,7 +6907,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -7132,7 +7135,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -7224,10 +7227,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>59</v>
@@ -7238,7 +7241,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L20" t="str">
         <f>C20&amp;" "&amp;D19&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
@@ -7250,10 +7253,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>84</v>
@@ -7266,7 +7269,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
@@ -7435,7 +7438,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7487,7 +7490,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -7499,7 +7502,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -7511,7 +7514,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -7547,7 +7550,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Compatibility Tests Questions (</v>
+        <v>create table mach_questions (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -7555,10 +7558,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>84</v>
@@ -7583,10 +7586,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>84</v>
@@ -7611,10 +7614,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>84</v>
@@ -7639,10 +7642,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>84</v>
@@ -7667,10 +7670,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>84</v>
@@ -7696,7 +7699,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="27"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -7710,8 +7713,8 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -7973,7 +7976,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8025,7 +8028,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -8037,7 +8040,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -8049,7 +8052,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -8085,14 +8088,14 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Compatibility Tests Answers (</v>
+        <v>create table mach_answers (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -8109,7 +8112,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -8121,10 +8124,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>84</v>
@@ -8139,7 +8142,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L11" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -8150,26 +8153,26 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="26" t="s">
+      <c r="B12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="29" t="s">
-        <v>201</v>
+      <c r="J12" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="L12" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -8181,10 +8184,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>74</v>
@@ -8197,7 +8200,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L13" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -8209,10 +8212,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>74</v>
@@ -8225,7 +8228,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L14" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -8237,10 +8240,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>74</v>
@@ -8253,7 +8256,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L15" t="e">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -8265,10 +8268,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>74</v>
@@ -8281,7 +8284,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -8293,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>74</v>
@@ -8309,7 +8312,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L17" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -8330,7 +8333,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" ref="L17:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -9161,7 +9164,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -9293,15 +9296,15 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="3" t="s">
         <v>95</v>
       </c>
@@ -9311,29 +9314,29 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="3" t="s">
         <v>97</v>
       </c>
@@ -9374,7 +9377,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>39</v>
@@ -9874,7 +9877,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>

--- a/doc/02_DB定義書_ダチョウの群れ.xlsx
+++ b/doc/02_DB定義書_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56296DEE-A835-4B5C-99FD-1D2A4A4168DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D42F17-A681-4216-ADF6-C3D534103351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14088" yWindow="780" windowWidth="9648" windowHeight="11148" tabRatio="1000" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>anc_password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>動物ID</t>
     <rPh sb="0" eb="2">
       <t>ドウブツ</t>
@@ -1351,6 +1347,10 @@
   </si>
   <si>
     <t>qas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>anicon_password</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2167,7 +2167,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2210,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2218,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2254,7 +2254,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
@@ -2269,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
@@ -2284,7 +2284,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>25</v>
@@ -2299,7 +2299,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -2311,10 +2311,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -2326,10 +2326,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
@@ -2344,7 +2344,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>25</v>
@@ -2359,7 +2359,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -2389,7 +2389,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>25</v>
@@ -2401,10 +2401,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>25</v>
@@ -2416,10 +2416,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>25</v>
@@ -2635,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2657,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2669,7 +2669,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2727,10 +2727,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2745,10 +2745,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -2759,7 +2759,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2771,23 +2771,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2799,10 +2799,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -2813,11 +2813,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2829,10 +2829,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -2843,11 +2843,11 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ref="L14:L19" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2862,10 +2862,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
@@ -2875,7 +2875,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -2893,7 +2893,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2911,7 +2911,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -2923,23 +2923,23 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -3160,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C0683A-63B5-4DB2-A133-D90FAB9C9BB5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3213,7 +3213,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3225,7 +3225,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3276,22 +3276,22 @@
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3306,7 +3306,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -3317,7 +3317,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="8"/>
@@ -3359,7 +3359,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>anc_password varcher (32)</v>
+        <v>anicon_password varcher (32)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3713,7 +3713,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3725,7 +3725,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3779,16 +3779,16 @@
         <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3803,13 +3803,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3">
         <v>255</v>
@@ -3817,7 +3817,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="8"/>
@@ -3831,13 +3831,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3">
         <v>255</v>
@@ -3845,7 +3845,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4226,7 +4226,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4238,7 +4238,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4296,10 +4296,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4314,25 +4314,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4344,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>36</v>
@@ -4358,11 +4358,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4380,7 +4380,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4392,13 +4392,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
@@ -4406,7 +4406,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -4420,13 +4420,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -4434,7 +4434,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -4724,7 +4724,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4738,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4760,7 +4760,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4772,7 +4772,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4830,10 +4830,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4848,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>36</v>
@@ -4862,11 +4862,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4878,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -4892,7 +4892,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4906,13 +4906,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -4920,7 +4920,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="8"/>
@@ -4934,13 +4934,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -4948,7 +4948,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -4965,10 +4965,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -5270,7 +5270,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5306,7 +5306,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5318,7 +5318,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5369,17 +5369,17 @@
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5394,10 +5394,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -5408,11 +5408,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5812,7 +5812,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5824,7 +5824,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5882,10 +5882,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5900,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>36</v>
@@ -5914,11 +5914,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
@@ -5944,7 +5944,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5972,7 +5972,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="8"/>
@@ -5986,13 +5986,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6000,7 +6000,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6012,13 +6012,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -6026,11 +6026,11 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -6042,13 +6042,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -6056,11 +6056,11 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -6072,13 +6072,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -6086,11 +6086,11 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -6105,10 +6105,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="3">
         <v>500</v>
@@ -6118,7 +6118,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6392,7 +6392,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6404,7 +6404,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6462,13 +6462,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6480,13 +6480,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3">
         <v>32</v>
@@ -6494,11 +6494,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6895,7 +6895,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6907,7 +6907,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6965,10 +6965,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6983,10 +6983,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -6995,11 +6995,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7011,10 +7011,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -7025,7 +7025,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -7039,10 +7039,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -7053,7 +7053,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -7067,10 +7067,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -7091,10 +7091,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -7105,7 +7105,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -7119,7 +7119,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
@@ -7135,7 +7135,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -7147,22 +7147,22 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
@@ -7178,7 +7178,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>39</v>
@@ -7201,19 +7201,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -7227,13 +7227,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -7241,7 +7241,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L20" t="str">
         <f>C20&amp;" "&amp;D19&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
@@ -7253,13 +7253,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -7269,7 +7269,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -7490,7 +7490,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -7502,7 +7502,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -7514,7 +7514,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -7558,13 +7558,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -7572,7 +7572,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="14"/>
@@ -7586,13 +7586,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -7600,7 +7600,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="14"/>
@@ -7614,13 +7614,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -7628,7 +7628,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="14"/>
@@ -7642,13 +7642,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -7656,7 +7656,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="14"/>
@@ -7670,13 +7670,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -7684,7 +7684,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="14"/>
@@ -8006,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -8028,7 +8028,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -8040,7 +8040,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -8096,23 +8096,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -8124,13 +8124,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3">
         <v>32</v>
@@ -8138,11 +8138,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L11" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -8154,13 +8154,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -8168,11 +8168,11 @@
       <c r="F12" s="17"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L12" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -8184,23 +8184,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L13" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -8212,23 +8212,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L14" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -8240,23 +8240,23 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L15" t="e">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -8268,23 +8268,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -8296,23 +8296,23 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L17" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -8605,7 +8605,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -8617,7 +8617,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -8675,10 +8675,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -8693,10 +8693,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -8707,7 +8707,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -8721,13 +8721,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -8735,11 +8735,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L12" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -8751,10 +8751,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -8765,7 +8765,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -8782,7 +8782,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -8805,7 +8805,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>40</v>
@@ -8819,11 +8819,11 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -8843,7 +8843,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L16" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -9130,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -9152,7 +9152,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -9164,7 +9164,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -9222,10 +9222,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -9240,7 +9240,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>36</v>
@@ -9254,11 +9254,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -9270,10 +9270,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -9284,11 +9284,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -9306,7 +9306,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="21"/>
       <c r="J13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -9324,7 +9324,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9338,7 +9338,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="27"/>
       <c r="J15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -9346,23 +9346,23 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L16" t="e">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -9374,10 +9374,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>39</v>
@@ -9388,7 +9388,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -9402,23 +9402,23 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L31" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -9708,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -9730,7 +9730,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -9800,10 +9800,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -9818,10 +9818,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -9832,7 +9832,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -9846,23 +9846,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -9874,10 +9874,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -9888,7 +9888,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -9902,13 +9902,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -9916,11 +9916,11 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/02_DB定義書_ダチョウの群れ.xlsx
+++ b/doc/02_DB定義書_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D42F17-A681-4216-ADF6-C3D534103351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186733D2-D0AC-4469-ACDB-A61C5A542CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14088" yWindow="780" windowWidth="9648" windowHeight="11148" tabRatio="1000" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="206">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -589,10 +589,6 @@
     <rPh sb="0" eb="2">
       <t>ジュシン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2210,7 +2206,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2254,7 +2250,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
@@ -2269,7 +2265,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
@@ -2284,7 +2280,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>25</v>
@@ -2299,7 +2295,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -2311,10 +2307,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -2326,10 +2322,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
@@ -2344,7 +2340,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>25</v>
@@ -2359,7 +2355,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -2389,7 +2385,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>25</v>
@@ -2404,7 +2400,7 @@
         <v>70</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>25</v>
@@ -2416,10 +2412,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>25</v>
@@ -2657,7 +2653,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2669,7 +2665,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2748,7 +2744,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -2759,7 +2755,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2787,7 +2783,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2802,7 +2798,7 @@
         <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -2817,7 +2813,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2832,7 +2828,7 @@
         <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -2847,7 +2843,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ref="L14:L19" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2862,7 +2858,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>83</v>
@@ -2875,7 +2871,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -2893,7 +2889,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2911,7 +2907,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -2923,10 +2919,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>73</v>
@@ -2939,7 +2935,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -3160,7 +3156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C0683A-63B5-4DB2-A133-D90FAB9C9BB5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3213,7 +3209,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3225,7 +3221,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3276,7 +3272,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>83</v>
@@ -3291,7 +3287,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3306,7 +3302,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -3713,7 +3709,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3725,7 +3721,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3803,10 +3799,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>83</v>
@@ -3831,10 +3827,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>83</v>
@@ -4226,7 +4222,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4238,7 +4234,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4314,10 +4310,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>90</v>
@@ -4329,10 +4325,10 @@
         <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4344,7 +4340,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>36</v>
@@ -4362,7 +4358,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4380,7 +4376,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4395,7 +4391,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>83</v>
@@ -4423,7 +4419,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>83</v>
@@ -4724,7 +4720,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4760,7 +4756,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4772,7 +4768,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4866,7 +4862,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4878,10 +4874,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>83</v>
@@ -4906,10 +4902,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>83</v>
@@ -4934,10 +4930,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>83</v>
@@ -4965,7 +4961,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>83</v>
@@ -5270,7 +5266,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5284,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5306,7 +5302,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5318,7 +5314,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5412,7 +5408,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5812,7 +5808,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5824,7 +5820,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5918,7 +5914,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5989,7 +5985,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>73</v>
@@ -6000,7 +5996,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6012,10 +6008,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>83</v>
@@ -6030,7 +6026,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -6042,10 +6038,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>83</v>
@@ -6060,7 +6056,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -6072,10 +6068,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>83</v>
@@ -6090,7 +6086,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -6118,7 +6114,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -6392,7 +6388,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6404,7 +6400,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6468,7 +6464,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6895,7 +6891,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6907,7 +6903,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -7135,7 +7131,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -7227,10 +7223,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>58</v>
@@ -7241,7 +7237,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L20" t="str">
         <f>C20&amp;" "&amp;D19&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
@@ -7253,10 +7249,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>83</v>
@@ -7269,7 +7265,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
@@ -7490,7 +7486,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -7502,7 +7498,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -7514,7 +7510,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -7558,10 +7554,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>83</v>
@@ -7586,10 +7582,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>83</v>
@@ -7614,10 +7610,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>83</v>
@@ -7642,10 +7638,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>83</v>
@@ -7670,10 +7666,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>83</v>
@@ -8028,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -8040,7 +8036,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -8052,7 +8048,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -8112,7 +8108,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -8124,10 +8120,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>83</v>
@@ -8142,7 +8138,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -8154,10 +8150,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>83</v>
@@ -8172,7 +8168,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L12" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -8184,10 +8180,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>73</v>
@@ -8200,7 +8196,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L13" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -8212,10 +8208,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>73</v>
@@ -8228,7 +8224,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L14" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -8240,10 +8236,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>73</v>
@@ -8256,7 +8252,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L15" t="e">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -8268,10 +8264,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>73</v>
@@ -8284,7 +8280,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -8296,10 +8292,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>73</v>
@@ -8312,7 +8308,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L17" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -8605,7 +8601,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -8617,7 +8613,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -8739,7 +8735,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L12" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -8823,7 +8819,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -8843,7 +8839,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L16" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -9099,8 +9095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE047A1-6994-48C4-901E-1AA2C66B042A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -9152,7 +9148,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -9164,7 +9160,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -9243,7 +9239,7 @@
         <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -9258,11 +9254,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id varcher (100),</v>
+        <v>send_id varcher (100),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -9273,7 +9269,7 @@
         <v>92</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -9288,11 +9284,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>_id varcher (100),</v>
+        <v>receive_id varcher (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -9306,7 +9302,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="21"/>
       <c r="J13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -9324,7 +9320,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9338,7 +9334,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="27"/>
       <c r="J15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -9377,7 +9373,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>39</v>
@@ -9402,10 +9398,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>73</v>
@@ -9418,7 +9414,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L31" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -9730,7 +9726,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -9877,7 +9873,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -9920,7 +9916,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
